--- a/Lit review data/deaths and dalys.xlsx
+++ b/Lit review data/deaths and dalys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3E5DD8-AB3E-D341-899E-D5B52A0CB083}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB5B76F-82F9-7841-8962-2108D1D7978F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="191">
   <si>
     <t>species</t>
   </si>
@@ -613,19 +613,21 @@
   <si>
     <t>845009.69 (other sources say 2-4 million)</t>
   </si>
+  <si>
+    <t xml:space="preserve">number of studies </t>
+  </si>
+  <si>
+    <t>8 (though this does not include studies that don't specify hookworm)</t>
+  </si>
+  <si>
+    <t>90 (though this does not include studies that don't specify LF)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,9 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1655,727 +1657,808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735C5DAD-FAF3-3142-839B-1E767364EC89}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="4" customWidth="1"/>
-    <col min="4" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="4" customWidth="1"/>
+    <col min="5" max="6" width="23" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2">
+        <v>228</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1342936.92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>117</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>372</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>127</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
         <v>18000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>666434</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
         <v>131</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
         <v>1196.47</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>133</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>1410</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>257</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
         <v>523</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>4472</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>155</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
         <v>157</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>250000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>158</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="G28" s="5"/>
+    <row r="28" spans="1:9">
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lit review data/deaths and dalys.xlsx
+++ b/Lit review data/deaths and dalys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB5B76F-82F9-7841-8962-2108D1D7978F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC230842-06E0-8942-B71F-0A961BE02A5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
   <si>
     <t>species</t>
   </si>
@@ -615,12 +615,6 @@
   </si>
   <si>
     <t xml:space="preserve">number of studies </t>
-  </si>
-  <si>
-    <t>8 (though this does not include studies that don't specify hookworm)</t>
-  </si>
-  <si>
-    <t>90 (though this does not include studies that don't specify LF)</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0EB1-2098-4240-8E83-2B860324C729}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +1654,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1739,8 +1733,8 @@
       <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
-        <v>190</v>
+      <c r="C3">
+        <v>100</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2087,8 +2081,8 @@
       <c r="B15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
-        <v>189</v>
+      <c r="C15">
+        <v>68</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>

--- a/Lit review data/deaths and dalys.xlsx
+++ b/Lit review data/deaths and dalys.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC230842-06E0-8942-B71F-0A961BE02A5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CD0FA5-EF53-6541-B590-6DA9E4ADE337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
+    <workbookView xWindow="1620" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="2" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="deaths and dalys by species" sheetId="1" r:id="rId1"/>
+    <sheet name="deaths and dalys by condition" sheetId="2" r:id="rId2"/>
+    <sheet name="deaths and dalys for unmapped s" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="189">
   <si>
     <t>species</t>
   </si>
@@ -1653,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735C5DAD-FAF3-3142-839B-1E767364EC89}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1757,231 +1758,231 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>177</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>178</v>
+        <v>114</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1342936.92</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>61</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>182</v>
+        <v>105</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
+      <c r="E8" s="4">
+        <v>1342936.92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>184</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="4">
-        <v>372</v>
+        <v>105</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>18000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>666434</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4">
+        <v>372</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>128</v>
@@ -1989,176 +1990,176 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>1196.47</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>185</v>
+        <v>18000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>666434</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>167</v>
+      <c r="D13" s="4">
+        <v>1196.47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>134</v>
+        <v>185</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1410</v>
+        <v>134</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
+        <v>138</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.55000000000000004</v>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G16" s="4">
-        <v>25</v>
+        <v>1410</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" t="s">
-        <v>98</v>
+        <v>129</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
+      <c r="E17" s="4">
+        <v>0.55000000000000004</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>135</v>
+        <v>96</v>
+      </c>
+      <c r="G17" s="4">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2366,13 +2367,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2381,24 +2382,24 @@
         <v>57</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2410,27 +2411,27 @@
         <v>57</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="4">
-        <v>250000</v>
+        <v>156</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -2439,20 +2440,74 @@
         <v>57</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="G27" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="H28" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I29">
+    <sortCondition descending="1" ref="C2:C29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570CB1B-C6DA-DE46-BC7C-D330C1A51FF9}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lit review data/deaths and dalys.xlsx
+++ b/Lit review data/deaths and dalys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CD0FA5-EF53-6541-B590-6DA9E4ADE337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C898593-0E7E-A04C-BC64-F69DF83E7208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="2" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths and dalys by species" sheetId="1" r:id="rId1"/>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095D0EB1-2098-4240-8E83-2B860324C729}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735C5DAD-FAF3-3142-839B-1E767364EC89}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1706,7 +1706,7 @@
         <v>85</v>
       </c>
       <c r="C2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>175</v>
@@ -1735,7 +1735,7 @@
         <v>87</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>88</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>176</v>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>184</v>
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>90</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -2467,7 +2467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570CB1B-C6DA-DE46-BC7C-D330C1A51FF9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Lit review data/deaths and dalys.xlsx
+++ b/Lit review data/deaths and dalys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherineschluth/bansallab/humanhelminths/Lit review data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C898593-0E7E-A04C-BC64-F69DF83E7208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B6D3C-E72E-1243-901F-DEC288D3F0DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
+    <workbookView xWindow="1000" yWindow="1080" windowWidth="27640" windowHeight="16100" activeTab="1" xr2:uid="{2FD00656-5231-DE49-A742-F6C9FCCF5F37}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths and dalys by species" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="deaths and dalys for unmapped s" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1655,7 +1656,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
